--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\SGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\TURMAB\SGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97D1CF-658B-4E08-9CF1-84EF55B241AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507801A-4E06-497A-8142-904EECA78F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>CustomUser</t>
   </si>
@@ -63,12 +63,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>reporterFK</t>
-  </si>
-  <si>
-    <t>assigneeFK</t>
-  </si>
-  <si>
     <t>TasksAssignees</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>PhotosTasksStatus</t>
-  </si>
-  <si>
     <t>taskStatusFK</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>weekDay</t>
   </si>
   <si>
-    <t>period</t>
-  </si>
-  <si>
     <t>TeacherAlocationPeriods</t>
   </si>
   <si>
@@ -231,14 +219,50 @@
     <t>signatureFK</t>
   </si>
   <si>
-    <t>approverFK</t>
+    <t>assigneeFK (customUser)</t>
+  </si>
+  <si>
+    <t>reporterFK (customUser)</t>
+  </si>
+  <si>
+    <t>area (enum)</t>
+  </si>
+  <si>
+    <t>modality (enum)</t>
+  </si>
+  <si>
+    <t>hour start</t>
+  </si>
+  <si>
+    <t>hour end</t>
+  </si>
+  <si>
+    <t>EnvironmentAlocation</t>
+  </si>
+  <si>
+    <t>datetime start</t>
+  </si>
+  <si>
+    <t>datetime end</t>
+  </si>
+  <si>
+    <t>environmentAlocationFK</t>
+  </si>
+  <si>
+    <t>approverFK (customUserFK)</t>
+  </si>
+  <si>
+    <t>status  (enum)</t>
+  </si>
+  <si>
+    <t>FilesTasksStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +271,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,9 +362,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,16 +371,40 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,444 +723,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FCA2A-D3FE-4330-9D0C-071DBF1007B2}">
   <dimension ref="B2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
+      <c r="H9" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="H12" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="F41" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F30" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="10" t="s">
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="F44" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
+      <c r="F45" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\TURMAB\SGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CST\SGE\SGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A507801A-4E06-497A-8142-904EECA78F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE641EE-D2F2-485F-BCD6-40C479579F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>CustomUser</t>
   </si>
@@ -165,21 +176,9 @@
     <t>weekDay</t>
   </si>
   <si>
-    <t>TeacherAlocationPeriods</t>
-  </si>
-  <si>
-    <t>teacherAlocationFK</t>
-  </si>
-  <si>
     <t>period (enum)</t>
   </si>
   <si>
-    <t>startDate*</t>
-  </si>
-  <si>
-    <t>endDate*</t>
-  </si>
-  <si>
     <t>timeLoad</t>
   </si>
   <si>
@@ -256,13 +255,22 @@
   </si>
   <si>
     <t>FilesTasksStatus</t>
+  </si>
+  <si>
+    <t>ClassDivision</t>
+  </si>
+  <si>
+    <t>TeacherAlocationDetail</t>
+  </si>
+  <si>
+    <t>classDivisionFK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +289,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,24 +366,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -386,12 +395,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,10 +404,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,9 +428,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -465,7 +468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -571,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -713,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -721,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FCA2A-D3FE-4330-9D0C-071DBF1007B2}">
-  <dimension ref="B2:H45"/>
+  <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,459 +744,464 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="D10" s="16" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="16" t="s">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="D41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="10" t="s">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="6" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="F45" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CST\SGE\SGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\TURMAB\SGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE641EE-D2F2-485F-BCD6-40C479579F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505C5FF-A9FA-48A4-A281-4111BF586D54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>CustomUser</t>
   </si>
@@ -131,12 +120,6 @@
     <t>EnviromentsAssignees</t>
   </si>
   <si>
-    <t>category (enum)</t>
-  </si>
-  <si>
-    <t>duration (*semestres)</t>
-  </si>
-  <si>
     <t>Courses</t>
   </si>
   <si>
@@ -176,9 +159,6 @@
     <t>weekDay</t>
   </si>
   <si>
-    <t>period (enum)</t>
-  </si>
-  <si>
     <t>timeLoad</t>
   </si>
   <si>
@@ -206,9 +186,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>planStatusFK</t>
-  </si>
-  <si>
     <t>signature</t>
   </si>
   <si>
@@ -224,12 +201,6 @@
     <t>reporterFK (customUser)</t>
   </si>
   <si>
-    <t>area (enum)</t>
-  </si>
-  <si>
-    <t>modality (enum)</t>
-  </si>
-  <si>
     <t>hour start</t>
   </si>
   <si>
@@ -264,13 +235,37 @@
   </si>
   <si>
     <t>classDivisionFK</t>
+  </si>
+  <si>
+    <t>category (enum) (CAI,CT,CST,FIC)</t>
+  </si>
+  <si>
+    <t>durationType (enum) (horas/semestre)</t>
+  </si>
+  <si>
+    <t>area (enum) (TI/MEC/ELÉTR.)</t>
+  </si>
+  <si>
+    <t>modality (enum) (EAD/PRESENCIAL/HÍBRIDO)</t>
+  </si>
+  <si>
+    <t>TeacherAlocationDetailEnv</t>
+  </si>
+  <si>
+    <t>teacherAlocationDetailFK</t>
+  </si>
+  <si>
+    <t>status (enum) (Pendente,Em Aprov,Aprov,Em Revis,Cancelado)</t>
+  </si>
+  <si>
+    <t>duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,7 +283,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,48 +377,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,9 +448,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -468,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -574,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,484 +744,509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FCA2A-D3FE-4330-9D0C-071DBF1007B2}">
-  <dimension ref="B2:H46"/>
+  <dimension ref="B1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="58.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12" t="s">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="H32" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="H34" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="D42" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="5" t="s">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F31" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5" t="s">
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsadm\Documents\Andre\TURMAB\SGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E505C5FF-A9FA-48A4-A281-4111BF586D54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BEDF9E-EFED-4491-8708-B59F0847D02A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C462372-E8DE-4D73-A06F-F452B00B0E7D}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,7 +275,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,30 +282,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -397,37 +372,19 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,28 +701,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53FCA2A-D3FE-4330-9D0C-071DBF1007B2}">
-  <dimension ref="B1:H52"/>
+  <dimension ref="B2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="58.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
-    </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -839,7 +793,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -850,7 +804,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -875,7 +829,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -889,7 +843,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -903,11 +857,9 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="H13" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,7 +901,7 @@
       <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
@@ -958,7 +910,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -966,131 +918,131 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="D21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="D26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17" t="s">
+      <c r="F28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1098,154 +1050,153 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="D33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="B34" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="B39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="11" t="s">
         <v>64</v>
       </c>
     </row>
